--- a/UnitStats.xlsx
+++ b/UnitStats.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>Accuracy</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Gun Spread Constant</t>
+  </si>
+  <si>
+    <t>Angle</t>
   </si>
 </sst>
 </file>
@@ -403,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAEF417-4300-4E8C-9D1A-E83A69325A68}">
-  <dimension ref="B2:K6"/>
+  <dimension ref="B2:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,7 +417,7 @@
     <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -437,8 +440,20 @@
       <c r="K2" s="2">
         <v>20</v>
       </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>8</v>
+      </c>
+      <c r="P2" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E3" s="2">
         <v>1</v>
       </c>
@@ -447,23 +462,42 @@
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <f>H$2/$E3</f>
-        <v>1</v>
+        <f>100-2.5*$E3</f>
+        <v>97.5</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:K3" si="0">I$2/$E3</f>
-        <v>5</v>
+        <f t="shared" ref="I3:K3" si="0">100-2.5*$E3</f>
+        <v>97.5</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>97.5</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>97.5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1">
+        <f>M$2*(1+H3/100)</f>
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:P6" si="1">N$2*(1+I3/100)</f>
+        <v>9.875</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" si="1"/>
+        <v>15.8</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="1"/>
+        <v>39.5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E4" s="2">
         <v>10</v>
       </c>
@@ -472,23 +506,42 @@
         <v>1</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:K6" si="1">H$2/$E4</f>
-        <v>0.1</v>
+        <f t="shared" ref="H4:K6" si="2">100-2.5*$E4</f>
+        <v>75</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M6" si="3">M$2*(1+H4/100)</f>
+        <v>1.75</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E5" s="2">
         <v>20</v>
       </c>
@@ -497,23 +550,42 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E6" s="2">
         <v>40</v>
       </c>
@@ -522,20 +594,39 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/UnitStats.xlsx
+++ b/UnitStats.xlsx
@@ -29,16 +29,16 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>Final Spread</t>
-  </si>
-  <si>
     <t>Spread Variance</t>
   </si>
   <si>
     <t>Gun Spread Constant</t>
   </si>
   <si>
-    <t>Angle</t>
+    <t>Final Spread Variance</t>
+  </si>
+  <si>
+    <t>Angle (- to +)</t>
   </si>
 </sst>
 </file>
@@ -62,7 +62,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -72,6 +72,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -88,10 +94,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,47 +417,49 @@
   <dimension ref="B2:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:K6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4">
         <v>1</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="4">
         <v>5</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="4">
         <v>8</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="4">
         <v>20</v>
       </c>
-      <c r="M2" s="2">
+      <c r="L2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4">
         <v>1</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="4">
         <v>5</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="4">
         <v>8</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="4">
         <v>20</v>
       </c>
     </row>
@@ -457,42 +467,42 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
         <f>100-2.5*$E3</f>
         <v>97.5</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <f t="shared" ref="I3:K3" si="0">100-2.5*$E3</f>
         <v>97.5</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <f t="shared" si="0"/>
         <v>97.5</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <f t="shared" si="0"/>
         <v>97.5</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="3">
         <f>M$2*(1+H3/100)</f>
         <v>1.9750000000000001</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="3">
         <f t="shared" ref="N3:P6" si="1">N$2*(1+I3/100)</f>
         <v>9.875</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="3">
         <f t="shared" si="1"/>
         <v>15.8</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="3">
         <f t="shared" si="1"/>
         <v>39.5</v>
       </c>
@@ -501,42 +511,42 @@
       <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3">
         <f t="shared" ref="H4:K6" si="2">100-2.5*$E4</f>
         <v>75</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="3">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="3">
         <f t="shared" ref="M4:M6" si="3">M$2*(1+H4/100)</f>
         <v>1.75</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="3">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="3">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="3">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
@@ -545,42 +555,42 @@
       <c r="E5" s="2">
         <v>20</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="3">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="3">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -589,42 +599,42 @@
       <c r="E6" s="2">
         <v>40</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>

--- a/UnitStats.xlsx
+++ b/UnitStats.xlsx
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAEF417-4300-4E8C-9D1A-E83A69325A68}">
   <dimension ref="B2:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,18 +435,10 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4">
-        <v>5</v>
-      </c>
-      <c r="J2" s="4">
-        <v>8</v>
-      </c>
-      <c r="K2" s="4">
-        <v>20</v>
-      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
       <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
